--- a/Experiments/Measurements/Two Banners Side by Side/S path/Antenna_4/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/S path/Antenna_4/Transformed_Coordinates.xlsx
@@ -1342,7 +1342,7 @@
         <v>137.759953891814</v>
       </c>
       <c r="H30" t="n">
-        <v>85.37303722760173</v>
+        <v>85.37303722760171</v>
       </c>
     </row>
     <row r="31">
@@ -1522,7 +1522,7 @@
         <v>155.8179358267172</v>
       </c>
       <c r="H36" t="n">
-        <v>89.62947199901841</v>
+        <v>89.62947199901838</v>
       </c>
     </row>
     <row r="37">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>182.8689059547157</v>
+        <v>182.8689059547156</v>
       </c>
       <c r="H53" t="n">
-        <v>234.9822095411079</v>
+        <v>234.9822095411077</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>153.5603902828153</v>
+        <v>153.5603902828155</v>
       </c>
       <c r="H54" t="n">
-        <v>246.2829982125988</v>
+        <v>246.2829982125991</v>
       </c>
     </row>
     <row r="55">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-58.58101196539607</v>
+        <v>-58.58101196539584</v>
       </c>
       <c r="H55" t="n">
         <v>190.798291690145</v>
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>28.13130864855267</v>
+        <v>28.13130864855247</v>
       </c>
       <c r="H59" t="n">
-        <v>120.6638846979167</v>
+        <v>120.6638846979166</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>-6.816945530983658</v>
+        <v>-6.816945530983327</v>
       </c>
       <c r="H60" t="n">
-        <v>121.7017539534553</v>
+        <v>121.7017539534554</v>
       </c>
     </row>
     <row r="61">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>-33.8238675554338</v>
+        <v>-33.82386755543363</v>
       </c>
       <c r="H61" t="n">
         <v>120.497219577662</v>
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>74.65005619103952</v>
+        <v>74.65005619103972</v>
       </c>
       <c r="H62" t="n">
-        <v>111.1508609498975</v>
+        <v>111.1508609498976</v>
       </c>
     </row>
     <row r="63">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>38.88089568360878</v>
+        <v>38.88089568360861</v>
       </c>
       <c r="H65" t="n">
-        <v>80.60265374416517</v>
+        <v>80.60265374416508</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>84.49852329126873</v>
+        <v>84.49852329126912</v>
       </c>
       <c r="H66" t="n">
-        <v>80.247463370178</v>
+        <v>80.24746337017812</v>
       </c>
     </row>
     <row r="67">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>47.36698354489477</v>
+        <v>47.36698354489496</v>
       </c>
       <c r="H67" t="n">
-        <v>87.16358699685875</v>
+        <v>87.16358699685885</v>
       </c>
     </row>
     <row r="68">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>62.2430098933519</v>
+        <v>62.2430098933521</v>
       </c>
       <c r="H68" t="n">
-        <v>67.26468637245397</v>
+        <v>67.26468637245405</v>
       </c>
     </row>
     <row r="69">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>113.9482871733472</v>
+        <v>113.948287173347</v>
       </c>
       <c r="H71" t="n">
-        <v>50.97480161789527</v>
+        <v>50.97480161789518</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>241.958491967683</v>
+        <v>241.9584919676834</v>
       </c>
       <c r="H72" t="n">
-        <v>50.77470222189505</v>
+        <v>50.77470222189532</v>
       </c>
     </row>
     <row r="73">
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>220.5470731124926</v>
+        <v>220.5470731124928</v>
       </c>
       <c r="H73" t="n">
-        <v>55.40699322666293</v>
+        <v>55.40699322666308</v>
       </c>
     </row>
     <row r="74">
@@ -2658,7 +2658,7 @@
         <v>-17.40608524008778</v>
       </c>
       <c r="H74" t="n">
-        <v>89.67992207814362</v>
+        <v>89.6799220781436</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>31.26738520094145</v>
+        <v>31.26738520094127</v>
       </c>
       <c r="H75" t="n">
-        <v>54.22266789574404</v>
+        <v>54.2226678957439</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>126.4756797373783</v>
+        <v>126.4756797373787</v>
       </c>
       <c r="H76" t="n">
-        <v>48.87814023441377</v>
+        <v>48.87814023441396</v>
       </c>
     </row>
     <row r="77">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>-20.01121709915852</v>
+        <v>-20.01121709915869</v>
       </c>
       <c r="H78" t="n">
-        <v>157.8999004085858</v>
+        <v>157.8999004085857</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>143.662939458756</v>
+        <v>143.6629394587559</v>
       </c>
       <c r="H79" t="n">
-        <v>240.3270436125594</v>
+        <v>240.3270436125591</v>
       </c>
     </row>
     <row r="80">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>9.551908762011703</v>
+        <v>9.551908762011871</v>
       </c>
       <c r="H81" t="n">
         <v>131.3352428609125</v>
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>56.55257040261835</v>
+        <v>56.55257040261817</v>
       </c>
       <c r="H82" t="n">
-        <v>98.69361564589059</v>
+        <v>98.69361564589052</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>50.96811090879721</v>
+        <v>50.96811090879704</v>
       </c>
       <c r="H83" t="n">
-        <v>140.0975300044511</v>
+        <v>140.097530004451</v>
       </c>
     </row>
     <row r="84">
@@ -2955,10 +2955,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>83.49292656723421</v>
+        <v>83.49292656723438</v>
       </c>
       <c r="H84" t="n">
-        <v>136.8696411514014</v>
+        <v>136.8696411514015</v>
       </c>
     </row>
     <row r="85">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>-24.27671765275202</v>
+        <v>-24.27671765275156</v>
       </c>
       <c r="H85" t="n">
         <v>174.8034244127751</v>
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>-12.94497837032952</v>
+        <v>-12.94497837032974</v>
       </c>
       <c r="H87" t="n">
-        <v>128.7182319776542</v>
+        <v>128.7182319776541</v>
       </c>
     </row>
     <row r="88">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>94.79756688750166</v>
+        <v>94.79756688750146</v>
       </c>
       <c r="H88" t="n">
-        <v>97.77681532087237</v>
+        <v>97.77681532087233</v>
       </c>
     </row>
     <row r="89">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>18.69898149144149</v>
+        <v>18.69898149144167</v>
       </c>
       <c r="H89" t="n">
-        <v>92.16399741222953</v>
+        <v>92.16399741222961</v>
       </c>
     </row>
     <row r="90">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>150.8404062707008</v>
+        <v>150.8404062707007</v>
       </c>
       <c r="H90" t="n">
-        <v>206.679937072674</v>
+        <v>206.6799370726738</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>28.22442774392274</v>
+        <v>28.22442774392315</v>
       </c>
       <c r="H91" t="n">
-        <v>112.3161489744914</v>
+        <v>112.3161489744915</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>76.51566476913843</v>
+        <v>76.51566476913884</v>
       </c>
       <c r="H92" t="n">
-        <v>86.2456394572754</v>
+        <v>86.24563945727549</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>49.76527078261075</v>
+        <v>49.76527078261095</v>
       </c>
       <c r="H93" t="n">
-        <v>97.58622231528548</v>
+        <v>97.58622231528553</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>64.7967806388383</v>
+        <v>64.79678063883802</v>
       </c>
       <c r="H94" t="n">
-        <v>65.78054632038078</v>
+        <v>65.78054632038061</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>65.00882955226754</v>
+        <v>65.00882955226795</v>
       </c>
       <c r="H95" t="n">
-        <v>49.72927453600015</v>
+        <v>49.72927453600033</v>
       </c>
     </row>
     <row r="96">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>212.0532077338235</v>
+        <v>212.0532077338233</v>
       </c>
       <c r="H97" t="n">
-        <v>119.6743166644678</v>
+        <v>119.6743166644677</v>
       </c>
     </row>
     <row r="98">
@@ -3375,10 +3375,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>71.31136083215129</v>
+        <v>71.3113608321511</v>
       </c>
       <c r="H98" t="n">
-        <v>68.18242189295934</v>
+        <v>68.18242189295927</v>
       </c>
     </row>
     <row r="99">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>80.15077213628015</v>
+        <v>80.15077213628057</v>
       </c>
       <c r="H99" t="n">
-        <v>63.10669733252954</v>
+        <v>63.10669733252968</v>
       </c>
     </row>
     <row r="100">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>78.38791486118214</v>
+        <v>78.38791486118234</v>
       </c>
       <c r="H101" t="n">
-        <v>56.82832500769759</v>
+        <v>56.82832500769767</v>
       </c>
     </row>
   </sheetData>
